--- a/www/IndicatorsPerCountry/Togo_GDPperCapita_TerritorialRef_1960_2012_CCode_768.xlsx
+++ b/www/IndicatorsPerCountry/Togo_GDPperCapita_TerritorialRef_1960_2012_CCode_768.xlsx
@@ -231,13 +231,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Togo_GDPperCapita_TerritorialRef_1960_2012_CCode_768.xlsx
+++ b/www/IndicatorsPerCountry/Togo_GDPperCapita_TerritorialRef_1960_2012_CCode_768.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,172 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>611</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>639</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>841</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>991</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>1043</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>1075</t>
-  </si>
-  <si>
-    <t>1138</t>
-  </si>
-  <si>
-    <t>1067</t>
-  </si>
-  <si>
-    <t>1087</t>
-  </si>
-  <si>
-    <t>1056</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>1057</t>
-  </si>
-  <si>
-    <t>1178</t>
-  </si>
-  <si>
-    <t>1097</t>
-  </si>
-  <si>
-    <t>998</t>
+    <t>870</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>913</t>
   </si>
   <si>
     <t>928</t>
   </si>
   <si>
-    <t>847</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>851</t>
-  </si>
-  <si>
-    <t>829</t>
-  </si>
-  <si>
-    <t>836</t>
-  </si>
-  <si>
-    <t>837</t>
-  </si>
-  <si>
-    <t>800.328006088</t>
-  </si>
-  <si>
-    <t>768.272914357</t>
-  </si>
-  <si>
-    <t>713.519034954</t>
-  </si>
-  <si>
-    <t>599.95027779</t>
-  </si>
-  <si>
-    <t>700.197580505</t>
-  </si>
-  <si>
-    <t>707.841685546</t>
-  </si>
-  <si>
-    <t>740.752855025</t>
-  </si>
-  <si>
-    <t>677.638171766</t>
-  </si>
-  <si>
-    <t>643.578791935</t>
-  </si>
-  <si>
-    <t>643.753409711</t>
-  </si>
-  <si>
-    <t>614.221542112</t>
-  </si>
-  <si>
-    <t>601.257230521</t>
-  </si>
-  <si>
-    <t>611.366064623</t>
-  </si>
-  <si>
-    <t>625.864694349</t>
-  </si>
-  <si>
-    <t>623.178036732</t>
-  </si>
-  <si>
-    <t>613.704726545</t>
-  </si>
-  <si>
-    <t>620.68570271</t>
-  </si>
-  <si>
-    <t>615.443546428</t>
-  </si>
-  <si>
-    <t>605.597888805</t>
+    <t>940</t>
+  </si>
+  <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>1275</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1503</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1631</t>
+  </si>
+  <si>
+    <t>1699</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1556</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>1698</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>1249.16794321487</t>
+  </si>
+  <si>
+    <t>1181.87126506398</t>
+  </si>
+  <si>
+    <t>1003.16487487302</t>
+  </si>
+  <si>
+    <t>1145.77758007388</t>
+  </si>
+  <si>
+    <t>1170.59771705596</t>
+  </si>
+  <si>
+    <t>1215.73997885394</t>
+  </si>
+  <si>
+    <t>1226.32704989982</t>
+  </si>
+  <si>
+    <t>1174.85273698303</t>
+  </si>
+  <si>
+    <t>1183.01296609916</t>
+  </si>
+  <si>
+    <t>1150.36591070506</t>
+  </si>
+  <si>
+    <t>1115.5502532021</t>
+  </si>
+  <si>
+    <t>1081.74451524629</t>
+  </si>
+  <si>
+    <t>1114.46381917196</t>
+  </si>
+  <si>
+    <t>1121.80584889235</t>
+  </si>
+  <si>
+    <t>1119.80426909117</t>
+  </si>
+  <si>
+    <t>1144.8814458855</t>
+  </si>
+  <si>
+    <t>1145.92064503615</t>
+  </si>
+  <si>
+    <t>1150.35785293882</t>
+  </si>
+  <si>
+    <t>1165.88883371318</t>
+  </si>
+  <si>
+    <t>1191.14492660954</t>
+  </si>
+  <si>
+    <t>1227</t>
+  </si>
+  <si>
+    <t>1263</t>
+  </si>
+  <si>
+    <t>1292</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>1370</t>
+  </si>
+  <si>
+    <t>1400</t>
   </si>
   <si>
     <t>Description</t>
@@ -676,7 +703,7 @@
         <v>1971.0</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -693,7 +720,7 @@
         <v>1972.0</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -710,7 +737,7 @@
         <v>1973.0</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -727,7 +754,7 @@
         <v>1974.0</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -744,7 +771,7 @@
         <v>1975.0</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -761,7 +788,7 @@
         <v>1976.0</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -778,7 +805,7 @@
         <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -795,7 +822,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -812,7 +839,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -829,7 +856,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -846,7 +873,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -863,7 +890,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -880,7 +907,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +924,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -914,7 +941,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -931,7 +958,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -948,7 +975,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -965,7 +992,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -982,7 +1009,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -999,7 +1026,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -1016,7 +1043,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -1033,7 +1060,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
@@ -1050,7 +1077,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
@@ -1067,7 +1094,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
@@ -1084,7 +1111,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -1101,7 +1128,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
@@ -1118,7 +1145,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -1135,7 +1162,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1179,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
@@ -1169,7 +1196,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -1186,7 +1213,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
@@ -1203,7 +1230,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -1220,7 +1247,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
@@ -1237,7 +1264,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
@@ -1254,7 +1281,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -1271,7 +1298,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
@@ -1288,7 +1315,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60">
@@ -1305,7 +1332,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1323,50 +1486,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
